--- a/laporan_testing_search.xlsx
+++ b/laporan_testing_search.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Test Report" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="laporang fitur search" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -451,7 +451,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>hasil_screenshot\screenshot_004953.png</t>
+          <t>hasil_screenshot\screenshot_025729.png</t>
         </is>
       </c>
     </row>
@@ -468,7 +468,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>hasil_screenshot\screenshot_005008.png</t>
+          <t>hasil_screenshot\screenshot_025733.png</t>
         </is>
       </c>
     </row>
@@ -485,7 +485,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>hasil_screenshot\screenshot_005009.png</t>
+          <t>hasil_screenshot\screenshot_025734.png</t>
         </is>
       </c>
     </row>
@@ -502,7 +502,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>hasil_screenshot\screenshot_005011.png</t>
+          <t>hasil_screenshot\screenshot_025737.png</t>
         </is>
       </c>
     </row>

--- a/laporan_testing_search.xlsx
+++ b/laporan_testing_search.xlsx
@@ -451,7 +451,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>hasil_screenshot\screenshot_025729.png</t>
+          <t>hasil_screenshot\screenshot_095849.png</t>
         </is>
       </c>
     </row>
@@ -468,7 +468,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>hasil_screenshot\screenshot_025733.png</t>
+          <t>hasil_screenshot\screenshot_095852.png</t>
         </is>
       </c>
     </row>
@@ -485,7 +485,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>hasil_screenshot\screenshot_025734.png</t>
+          <t>hasil_screenshot\screenshot_095854.png</t>
         </is>
       </c>
     </row>
@@ -502,7 +502,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>hasil_screenshot\screenshot_025737.png</t>
+          <t>hasil_screenshot\screenshot_095856.png</t>
         </is>
       </c>
     </row>

--- a/laporan_testing_search.xlsx
+++ b/laporan_testing_search.xlsx
@@ -451,7 +451,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>hasil_screenshot\screenshot_222422.png</t>
+          <t>hasil_screenshot\screenshot_231005.png</t>
         </is>
       </c>
     </row>
@@ -468,7 +468,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>hasil_screenshot\screenshot_222426.png</t>
+          <t>hasil_screenshot\screenshot_231009.png</t>
         </is>
       </c>
     </row>
@@ -485,7 +485,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>hasil_screenshot\screenshot_222429.png</t>
+          <t>hasil_screenshot\screenshot_231011.png</t>
         </is>
       </c>
     </row>

--- a/laporan_testing_search.xlsx
+++ b/laporan_testing_search.xlsx
@@ -451,7 +451,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>hasil_screenshot\screenshot_231005.png</t>
+          <t>hasil_screenshot\screenshot_Search_111631.png</t>
         </is>
       </c>
     </row>
@@ -468,7 +468,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>hasil_screenshot\screenshot_231009.png</t>
+          <t>hasil_screenshot\screenshot_Search_111633.png</t>
         </is>
       </c>
     </row>
@@ -485,7 +485,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>hasil_screenshot\screenshot_231011.png</t>
+          <t>hasil_screenshot\screenshot_Search_111635.png</t>
         </is>
       </c>
     </row>

--- a/laporan_testing_search.xlsx
+++ b/laporan_testing_search.xlsx
@@ -451,7 +451,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>hasil_screenshot\screenshot_Search_111631.png</t>
+          <t>hasil_screenshot\screenshot_Search_123945.png</t>
         </is>
       </c>
     </row>
@@ -468,7 +468,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>hasil_screenshot\screenshot_Search_111633.png</t>
+          <t>hasil_screenshot\screenshot_Search_123948.png</t>
         </is>
       </c>
     </row>
@@ -485,7 +485,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>hasil_screenshot\screenshot_Search_111635.png</t>
+          <t>hasil_screenshot\screenshot_Search_123950.png</t>
         </is>
       </c>
     </row>
